--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r102_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r102_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4312" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -534,10 +546,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -581,28 +593,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -627,28 +639,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -736,10 +748,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -783,28 +795,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -829,28 +841,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -938,10 +950,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -985,28 +997,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1031,28 +1043,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1140,10 +1152,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1187,28 +1199,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1233,28 +1245,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1342,10 +1354,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1389,28 +1401,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1435,28 +1447,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1544,10 +1556,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1591,28 +1603,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1637,28 +1649,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1775,10 +1787,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1822,28 +1834,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1868,28 +1880,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1977,10 +1989,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2024,28 +2036,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2070,28 +2082,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2179,10 +2191,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2226,28 +2238,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2272,28 +2284,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2381,10 +2393,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2428,28 +2440,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2474,28 +2486,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2554,10 +2566,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2601,28 +2613,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2647,28 +2659,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2756,10 +2768,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2803,28 +2815,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2849,28 +2861,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2987,10 +2999,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3034,28 +3046,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3080,28 +3092,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3218,10 +3230,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3265,28 +3277,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3311,28 +3323,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3449,10 +3461,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3496,28 +3508,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3542,28 +3554,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3680,10 +3692,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3727,28 +3739,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3773,28 +3785,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3853,10 +3865,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3900,28 +3912,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3946,28 +3958,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4026,10 +4038,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4073,28 +4085,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4119,28 +4131,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4199,10 +4211,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4246,28 +4258,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4292,28 +4304,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4430,10 +4442,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4477,28 +4489,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4523,28 +4535,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4632,10 +4644,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4679,28 +4691,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4725,28 +4737,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4863,10 +4875,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4910,28 +4922,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4956,28 +4968,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5036,10 +5048,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5083,28 +5095,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5129,28 +5141,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5209,10 +5221,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5256,28 +5268,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5302,28 +5314,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5411,10 +5423,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5458,28 +5470,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5504,28 +5516,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5584,10 +5596,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5631,28 +5643,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5677,28 +5689,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5757,10 +5769,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5804,28 +5816,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5850,28 +5862,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5930,10 +5942,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5977,28 +5989,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6023,28 +6035,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6132,10 +6144,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6179,28 +6191,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6225,28 +6237,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6305,10 +6317,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6352,28 +6364,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6398,28 +6410,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6478,10 +6490,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6525,28 +6537,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6571,28 +6583,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6651,10 +6663,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6698,28 +6710,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6744,28 +6756,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6911,10 +6923,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6958,28 +6970,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7004,28 +7016,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7084,10 +7096,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7131,28 +7143,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7177,28 +7189,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7286,10 +7298,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7333,28 +7345,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7379,28 +7391,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7459,10 +7471,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7506,28 +7518,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7552,28 +7564,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7690,10 +7702,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7737,28 +7749,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7783,28 +7795,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7863,10 +7875,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7910,28 +7922,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7956,28 +7968,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8036,10 +8048,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8083,28 +8095,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8129,28 +8141,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8267,10 +8279,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8314,28 +8326,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8360,28 +8372,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8469,10 +8481,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8516,28 +8528,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8562,28 +8574,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8642,10 +8654,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8689,28 +8701,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8735,28 +8747,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8815,10 +8827,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8862,28 +8874,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="2">
+      <c r="A303" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="2">
+      <c r="C303" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8908,28 +8920,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="2">
+      <c r="C305" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="2">
+      <c r="D305" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="2">
+      <c r="I305" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8988,10 +9000,10 @@
       <c r="I307">
         <f>((C307-C306)^2+(D307- D306)^2)^.5</f>
       </c>
-      <c r="J307" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K307" s="2" t="s">
+      <c r="J307" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K307" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L307" t="n">
@@ -9035,28 +9047,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s" s="2">
+      <c r="A309" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C309" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s" s="2">
+      <c r="C309" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9081,28 +9093,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C311" t="s" s="2">
+      <c r="C311" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D311" t="s" s="2">
+      <c r="D311" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I311" t="s" s="2">
+      <c r="I311" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9161,10 +9173,10 @@
       <c r="I313">
         <f>((C313-C312)^2+(D313- D312)^2)^.5</f>
       </c>
-      <c r="J313" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K313" s="2" t="s">
+      <c r="J313" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K313" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L313" t="n">
@@ -9208,28 +9220,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="2">
+      <c r="A315" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C315" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D315" t="s" s="2">
+      <c r="C315" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9254,28 +9266,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C317" t="s" s="2">
+      <c r="C317" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D317" t="s" s="2">
+      <c r="D317" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I317" t="s" s="2">
+      <c r="I317" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9363,10 +9375,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="2" t="s">
+      <c r="J320" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9410,28 +9422,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="2">
+      <c r="A322" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="2">
+      <c r="C322" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9456,28 +9468,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="2">
+      <c r="C324" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="2">
+      <c r="D324" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="2">
+      <c r="I324" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9565,10 +9577,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="2" t="s">
+      <c r="J327" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9612,28 +9624,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="2">
+      <c r="A329" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="2">
+      <c r="C329" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9658,28 +9670,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="2">
+      <c r="C331" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="2">
+      <c r="D331" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="2">
+      <c r="I331" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9738,10 +9750,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="2" t="s">
+      <c r="J333" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9785,28 +9797,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="2">
+      <c r="A335" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="2">
+      <c r="C335" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9831,28 +9843,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="2">
+      <c r="C337" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="2">
+      <c r="D337" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="2">
+      <c r="I337" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9911,10 +9923,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="2" t="s">
+      <c r="J339" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9958,28 +9970,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="2">
+      <c r="A341" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="2">
+      <c r="C341" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10004,28 +10016,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="2">
+      <c r="C343" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="2">
+      <c r="D343" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="2">
+      <c r="I343" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10084,10 +10096,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="2" t="s">
+      <c r="J345" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10131,28 +10143,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="2">
+      <c r="A347" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="2">
+      <c r="B347" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="2">
+      <c r="C347" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="2">
+      <c r="E347" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="2">
+      <c r="F347" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="2">
+      <c r="G347" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="2">
+      <c r="H347" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10177,28 +10189,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="2">
+      <c r="C349" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="2">
+      <c r="D349" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="2">
+      <c r="I349" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10286,10 +10298,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="2" t="s">
+      <c r="J352" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10333,28 +10345,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="2">
+      <c r="A354" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="2">
+      <c r="C354" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10379,28 +10391,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="2">
+      <c r="B356" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="2">
+      <c r="C356" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="2">
+      <c r="D356" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="2">
+      <c r="E356" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="2">
+      <c r="F356" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="2">
+      <c r="G356" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="2">
+      <c r="H356" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="2">
+      <c r="I356" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10517,10 +10529,10 @@
       <c r="I360">
         <f>((C360-C359)^2+(D360- D359)^2)^.5</f>
       </c>
-      <c r="J360" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K360" s="2" t="s">
+      <c r="J360" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K360" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L360" t="n">
@@ -10564,28 +10576,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="s" s="2">
+      <c r="A362" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C362" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D362" t="s" s="2">
+      <c r="C362" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10610,28 +10622,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="B364" t="s" s="2">
+      <c r="B364" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C364" t="s" s="2">
+      <c r="C364" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D364" t="s" s="2">
+      <c r="D364" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E364" t="s" s="2">
+      <c r="E364" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F364" t="s" s="2">
+      <c r="F364" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G364" t="s" s="2">
+      <c r="G364" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H364" t="s" s="2">
+      <c r="H364" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I364" t="s" s="2">
+      <c r="I364" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10690,10 +10702,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="2" t="s">
+      <c r="J366" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
@@ -10737,28 +10749,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s" s="2">
+      <c r="A368" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B368" t="s" s="2">
+      <c r="B368" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C368" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D368" t="s" s="2">
+      <c r="C368" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E368" t="s" s="2">
+      <c r="E368" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F368" t="s" s="2">
+      <c r="F368" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G368" t="s" s="2">
+      <c r="G368" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H368" t="s" s="2">
+      <c r="H368" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10783,28 +10795,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="B370" t="s" s="2">
+      <c r="B370" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C370" t="s" s="2">
+      <c r="C370" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D370" t="s" s="2">
+      <c r="D370" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E370" t="s" s="2">
+      <c r="E370" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F370" t="s" s="2">
+      <c r="F370" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G370" t="s" s="2">
+      <c r="G370" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H370" t="s" s="2">
+      <c r="H370" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I370" t="s" s="2">
+      <c r="I370" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10863,10 +10875,10 @@
       <c r="I372">
         <f>((C372-C371)^2+(D372- D371)^2)^.5</f>
       </c>
-      <c r="J372" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K372" s="2" t="s">
+      <c r="J372" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K372" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L372" t="n">
@@ -10910,28 +10922,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="s" s="2">
+      <c r="A374" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B374" t="s" s="2">
+      <c r="B374" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C374" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D374" t="s" s="2">
+      <c r="C374" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D374" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E374" t="s" s="2">
+      <c r="E374" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F374" t="s" s="2">
+      <c r="F374" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G374" t="s" s="2">
+      <c r="G374" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H374" t="s" s="2">
+      <c r="H374" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10956,28 +10968,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="B376" t="s" s="2">
+      <c r="B376" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C376" t="s" s="2">
+      <c r="C376" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D376" t="s" s="2">
+      <c r="D376" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E376" t="s" s="2">
+      <c r="E376" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F376" t="s" s="2">
+      <c r="F376" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G376" t="s" s="2">
+      <c r="G376" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H376" t="s" s="2">
+      <c r="H376" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I376" t="s" s="2">
+      <c r="I376" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11036,10 +11048,10 @@
       <c r="I378">
         <f>((C378-C377)^2+(D378- D377)^2)^.5</f>
       </c>
-      <c r="J378" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K378" s="2" t="s">
+      <c r="J378" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K378" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L378" t="n">
@@ -11083,28 +11095,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="s" s="2">
+      <c r="A380" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B380" t="s" s="2">
+      <c r="B380" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C380" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D380" t="s" s="2">
+      <c r="C380" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D380" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E380" t="s" s="2">
+      <c r="E380" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F380" t="s" s="2">
+      <c r="F380" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G380" t="s" s="2">
+      <c r="G380" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H380" t="s" s="2">
+      <c r="H380" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11129,28 +11141,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="B382" t="s" s="2">
+      <c r="B382" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C382" t="s" s="2">
+      <c r="C382" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D382" t="s" s="2">
+      <c r="D382" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E382" t="s" s="2">
+      <c r="E382" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F382" t="s" s="2">
+      <c r="F382" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G382" t="s" s="2">
+      <c r="G382" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H382" t="s" s="2">
+      <c r="H382" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I382" t="s" s="2">
+      <c r="I382" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11209,10 +11221,10 @@
       <c r="I384">
         <f>((C384-C383)^2+(D384- D383)^2)^.5</f>
       </c>
-      <c r="J384" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K384" s="2" t="s">
+      <c r="J384" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K384" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L384" t="n">
@@ -11256,28 +11268,28 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="s" s="2">
+      <c r="A386" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B386" t="s" s="2">
+      <c r="B386" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C386" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D386" t="s" s="2">
+      <c r="C386" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D386" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E386" t="s" s="2">
+      <c r="E386" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F386" t="s" s="2">
+      <c r="F386" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G386" t="s" s="2">
+      <c r="G386" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H386" t="s" s="2">
+      <c r="H386" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11302,28 +11314,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="B388" t="s" s="2">
+      <c r="B388" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C388" t="s" s="2">
+      <c r="C388" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D388" t="s" s="2">
+      <c r="D388" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E388" t="s" s="2">
+      <c r="E388" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F388" t="s" s="2">
+      <c r="F388" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G388" t="s" s="2">
+      <c r="G388" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H388" t="s" s="2">
+      <c r="H388" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I388" t="s" s="2">
+      <c r="I388" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11382,10 +11394,10 @@
       <c r="I390">
         <f>((C390-C389)^2+(D390- D389)^2)^.5</f>
       </c>
-      <c r="J390" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K390" s="2" t="s">
+      <c r="J390" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K390" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L390" t="n">
@@ -11429,28 +11441,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="s" s="2">
+      <c r="A392" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B392" t="s" s="2">
+      <c r="B392" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C392" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D392" t="s" s="2">
+      <c r="C392" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D392" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E392" t="s" s="2">
+      <c r="E392" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F392" t="s" s="2">
+      <c r="F392" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G392" t="s" s="2">
+      <c r="G392" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H392" t="s" s="2">
+      <c r="H392" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11475,28 +11487,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="B394" t="s" s="2">
+      <c r="B394" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C394" t="s" s="2">
+      <c r="C394" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D394" t="s" s="2">
+      <c r="D394" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E394" t="s" s="2">
+      <c r="E394" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F394" t="s" s="2">
+      <c r="F394" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G394" t="s" s="2">
+      <c r="G394" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H394" t="s" s="2">
+      <c r="H394" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I394" t="s" s="2">
+      <c r="I394" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11555,10 +11567,10 @@
       <c r="I396">
         <f>((C396-C395)^2+(D396- D395)^2)^.5</f>
       </c>
-      <c r="J396" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K396" s="2" t="s">
+      <c r="J396" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K396" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L396" t="n">
